--- a/Results/Calculation/dp-partial-ner-glove-money.xlsx
+++ b/Results/Calculation/dp-partial-ner-glove-money.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C2">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>0.6899999999999999</v>
+        <v>0.6536312849162011</v>
       </c>
       <c r="G2">
-        <v>0.74</v>
+        <v>0.7748344370860927</v>
       </c>
       <c r="H2">
-        <v>0.71</v>
+        <v>0.709090909090909</v>
       </c>
       <c r="I2">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C3">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>0.76</v>
+        <v>0.7481481481481481</v>
       </c>
       <c r="G3">
-        <v>0.93</v>
+        <v>0.9308755760368663</v>
       </c>
       <c r="H3">
-        <v>0.84</v>
+        <v>0.8295687885010266</v>
       </c>
       <c r="I3">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C4">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>0.6899999999999999</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="G4">
-        <v>0.75</v>
+        <v>0.7922077922077922</v>
       </c>
       <c r="H4">
-        <v>0.72</v>
+        <v>0.7305389221556887</v>
       </c>
       <c r="I4">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5">
-        <v>0.62</v>
+        <v>0.5838926174496645</v>
       </c>
       <c r="G5">
-        <v>0.65</v>
+        <v>0.6692307692307692</v>
       </c>
       <c r="H5">
-        <v>0.63</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="I5">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
